--- a/Data/sprague-ubiomeJan2015.xlsx
+++ b/Data/sprague-ubiomeJan2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="240" windowWidth="24500" windowHeight="26500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sprague-ubiomeJan2015.csv" sheetId="1" r:id="rId1"/>
@@ -907,13 +907,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -941,27 +946,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2">
-        <v>2</v>
+        <v>46123</v>
       </c>
       <c r="B2">
-        <v>131567</v>
+        <v>186827</v>
       </c>
       <c r="C2">
-        <v>11060</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>1447</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -969,51 +974,51 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1239</v>
+        <v>224768</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>224767</v>
       </c>
       <c r="C3">
-        <v>6161</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>557052</v>
+        <v>1447</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4">
-        <v>91061</v>
+        <v>713</v>
       </c>
       <c r="B4">
-        <v>1239</v>
+        <v>712</v>
       </c>
       <c r="C4">
-        <v>4667</v>
+        <v>361</v>
       </c>
       <c r="D4">
-        <v>421971</v>
+        <v>32640</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1021,129 +1026,129 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>186826</v>
+        <v>51048</v>
       </c>
       <c r="B5">
-        <v>91061</v>
+        <v>713</v>
       </c>
       <c r="C5">
-        <v>4079</v>
+        <v>339</v>
       </c>
       <c r="D5">
-        <v>368807</v>
+        <v>30651</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6">
-        <v>1224</v>
+        <v>201174</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3911</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>353617</v>
+        <v>2803</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7">
-        <v>1300</v>
+        <v>1760</v>
       </c>
       <c r="B7">
-        <v>186826</v>
+        <v>201174</v>
       </c>
       <c r="C7">
-        <v>3423</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>309494</v>
+        <v>2803</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8">
-        <v>1301</v>
+        <v>85003</v>
       </c>
       <c r="B8">
-        <v>1300</v>
+        <v>1760</v>
       </c>
       <c r="C8">
-        <v>3408</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>308137</v>
+        <v>2803</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9">
+        <v>1654</v>
+      </c>
+      <c r="B9">
+        <v>2049</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>814</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1236</v>
-      </c>
-      <c r="B9">
-        <v>1224</v>
-      </c>
-      <c r="C9">
-        <v>3212</v>
-      </c>
-      <c r="D9">
-        <v>290416</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -1151,25 +1156,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>135625</v>
+        <v>1660</v>
       </c>
       <c r="B10">
-        <v>1236</v>
+        <v>1654</v>
       </c>
       <c r="C10">
-        <v>3209</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>290145</v>
+        <v>633</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -1177,311 +1182,311 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>712</v>
+        <v>544580</v>
       </c>
       <c r="B11">
-        <v>135625</v>
+        <v>1654</v>
       </c>
       <c r="C11">
-        <v>3209</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>290145</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
+      <c r="A12">
+        <v>2049</v>
+      </c>
+      <c r="B12">
+        <v>85005</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>814</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>724</v>
-      </c>
-      <c r="B12">
-        <v>712</v>
-      </c>
-      <c r="C12">
-        <v>2848</v>
-      </c>
-      <c r="D12">
-        <v>257505</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="A13">
+        <v>2037</v>
+      </c>
+      <c r="B13">
+        <v>85003</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>2803</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
+      <c r="A14">
+        <v>85005</v>
+      </c>
+      <c r="B14">
+        <v>2037</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>814</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
+      <c r="A15">
+        <v>186827</v>
+      </c>
+      <c r="B15">
+        <v>186826</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1447</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
+      <c r="A16">
+        <v>150247</v>
+      </c>
+      <c r="B16">
+        <v>186817</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>727</v>
-      </c>
-      <c r="B13">
-        <v>724</v>
-      </c>
-      <c r="C13">
-        <v>2844</v>
-      </c>
-      <c r="D13">
-        <v>257143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>909929</v>
-      </c>
-      <c r="B14">
-        <v>909932</v>
-      </c>
-      <c r="C14">
-        <v>1467</v>
-      </c>
-      <c r="D14">
-        <v>132640</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1">
+      <c r="A17">
+        <v>186817</v>
+      </c>
+      <c r="B17">
+        <v>1385</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1">
+      <c r="A18">
+        <v>1385</v>
+      </c>
+      <c r="B18">
+        <v>91061</v>
+      </c>
+      <c r="C18">
+        <v>588</v>
+      </c>
+      <c r="D18">
+        <v>53165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>909932</v>
-      </c>
-      <c r="B15">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1">
+      <c r="A19">
+        <v>539738</v>
+      </c>
+      <c r="B19">
+        <v>539002</v>
+      </c>
+      <c r="C19">
+        <v>584</v>
+      </c>
+      <c r="D19">
+        <v>52803</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1">
+      <c r="A20">
+        <v>539002</v>
+      </c>
+      <c r="B20">
+        <v>1385</v>
+      </c>
+      <c r="C20">
+        <v>584</v>
+      </c>
+      <c r="D20">
+        <v>52803</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
+      <c r="A21">
+        <v>91061</v>
+      </c>
+      <c r="B21">
         <v>1239</v>
       </c>
-      <c r="C15">
-        <v>1467</v>
-      </c>
-      <c r="D15">
-        <v>132640</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C21">
+        <v>4667</v>
+      </c>
+      <c r="D21">
+        <v>421971</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>31977</v>
-      </c>
-      <c r="B16">
-        <v>909929</v>
-      </c>
-      <c r="C16">
-        <v>1467</v>
-      </c>
-      <c r="D16">
-        <v>132640</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>29465</v>
-      </c>
-      <c r="B17">
-        <v>31977</v>
-      </c>
-      <c r="C17">
-        <v>1458</v>
-      </c>
-      <c r="D17">
-        <v>131826</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>671229</v>
-      </c>
-      <c r="B18">
-        <v>29465</v>
-      </c>
-      <c r="C18">
-        <v>1451</v>
-      </c>
-      <c r="D18">
-        <v>131193</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>28216</v>
-      </c>
-      <c r="B19">
-        <v>1224</v>
-      </c>
-      <c r="C19">
-        <v>694</v>
-      </c>
-      <c r="D19">
-        <v>62749</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>481</v>
-      </c>
-      <c r="B20">
-        <v>206351</v>
-      </c>
-      <c r="C20">
-        <v>689</v>
-      </c>
-      <c r="D20">
-        <v>62297</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>206351</v>
-      </c>
-      <c r="B21">
-        <v>28216</v>
-      </c>
-      <c r="C21">
-        <v>689</v>
-      </c>
-      <c r="D21">
-        <v>62297</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22">
-        <v>482</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>481</v>
+        <v>131567</v>
       </c>
       <c r="C22">
-        <v>687</v>
+        <v>11060</v>
       </c>
       <c r="D22">
-        <v>62116</v>
+        <v>1000000</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -1489,22 +1494,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>484</v>
+        <v>1146433</v>
       </c>
       <c r="B23">
-        <v>482</v>
+        <v>49928</v>
       </c>
       <c r="C23">
-        <v>655</v>
+        <v>245</v>
       </c>
       <c r="D23">
-        <v>59222</v>
+        <v>22152</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -1513,24 +1518,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24">
-        <v>186828</v>
+        <v>815</v>
       </c>
       <c r="B24">
-        <v>186826</v>
+        <v>171549</v>
       </c>
       <c r="C24">
-        <v>629</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>56872</v>
+        <v>452</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -1539,131 +1544,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25">
-        <v>117563</v>
+        <v>171549</v>
       </c>
       <c r="B25">
-        <v>186828</v>
+        <v>200643</v>
       </c>
       <c r="C25">
-        <v>627</v>
+        <v>378</v>
       </c>
       <c r="D25">
-        <v>56691</v>
+        <v>34177</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
+      <c r="A26">
+        <v>976</v>
+      </c>
+      <c r="B26">
+        <v>68336</v>
+      </c>
+      <c r="C26">
+        <v>482</v>
+      </c>
+      <c r="D26">
+        <v>43580</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27">
+        <v>68336</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>482</v>
+      </c>
+      <c r="D27">
+        <v>43580</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="A28">
+        <v>200643</v>
+      </c>
+      <c r="B28">
+        <v>976</v>
+      </c>
+      <c r="C28">
+        <v>385</v>
+      </c>
+      <c r="D28">
+        <v>34810</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="A29">
+        <v>59735</v>
+      </c>
+      <c r="B29">
+        <v>49546</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>2893</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
         <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>1385</v>
-      </c>
-      <c r="B26">
-        <v>91061</v>
-      </c>
-      <c r="C26">
-        <v>588</v>
-      </c>
-      <c r="D26">
-        <v>53165</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>1378</v>
-      </c>
-      <c r="B27">
-        <v>539738</v>
-      </c>
-      <c r="C27">
-        <v>584</v>
-      </c>
-      <c r="D27">
-        <v>52803</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>539002</v>
-      </c>
-      <c r="B28">
-        <v>1385</v>
-      </c>
-      <c r="C28">
-        <v>584</v>
-      </c>
-      <c r="D28">
-        <v>52803</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>539738</v>
-      </c>
-      <c r="B29">
-        <v>539002</v>
-      </c>
-      <c r="C29">
-        <v>584</v>
-      </c>
-      <c r="D29">
-        <v>52803</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -1671,103 +1676,103 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>68336</v>
+        <v>354471</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>59735</v>
       </c>
       <c r="C30">
-        <v>482</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>43580</v>
+        <v>2893</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31">
-        <v>976</v>
+        <v>28216</v>
       </c>
       <c r="B31">
-        <v>68336</v>
+        <v>1224</v>
       </c>
       <c r="C31">
-        <v>482</v>
+        <v>694</v>
       </c>
       <c r="D31">
-        <v>43580</v>
+        <v>62749</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32">
-        <v>1379</v>
+        <v>80840</v>
       </c>
       <c r="B32">
-        <v>1378</v>
+        <v>28216</v>
       </c>
       <c r="C32">
-        <v>447</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>40416</v>
+        <v>452</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33">
-        <v>200643</v>
+        <v>194</v>
       </c>
       <c r="B33">
-        <v>976</v>
+        <v>72294</v>
       </c>
       <c r="C33">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>34810</v>
+        <v>452</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -1775,100 +1780,100 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>171549</v>
+        <v>204</v>
       </c>
       <c r="B34">
-        <v>200643</v>
+        <v>194</v>
       </c>
       <c r="C34">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>34177</v>
+        <v>452</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
+      <c r="A35">
+        <v>72294</v>
+      </c>
+      <c r="B35">
+        <v>213849</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>452</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1">
+      <c r="A36">
+        <v>213849</v>
+      </c>
+      <c r="B36">
+        <v>29547</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>452</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
         <v>17</v>
       </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>713</v>
-      </c>
-      <c r="B35">
-        <v>712</v>
-      </c>
-      <c r="C35">
-        <v>361</v>
-      </c>
-      <c r="D35">
-        <v>32640</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>51048</v>
-      </c>
-      <c r="B36">
-        <v>713</v>
-      </c>
-      <c r="C36">
-        <v>339</v>
-      </c>
-      <c r="D36">
-        <v>30651</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
       <c r="H36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37">
-        <v>838</v>
+        <v>1016</v>
       </c>
       <c r="B37">
-        <v>171552</v>
+        <v>49546</v>
       </c>
       <c r="C37">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>27667</v>
+        <v>5606</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -1879,25 +1884,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>171552</v>
+        <v>1018</v>
       </c>
       <c r="B38">
-        <v>171549</v>
+        <v>1016</v>
       </c>
       <c r="C38">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>27667</v>
+        <v>1085</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -1905,204 +1910,204 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>49928</v>
+        <v>1019</v>
       </c>
       <c r="B39">
-        <v>2323</v>
+        <v>1016</v>
       </c>
       <c r="C39">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>22152</v>
+        <v>2712</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40">
-        <v>2323</v>
+        <v>868</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>135615</v>
       </c>
       <c r="C40">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>22152</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41">
-        <v>1146433</v>
+        <v>135615</v>
       </c>
       <c r="B41">
-        <v>49928</v>
+        <v>1236</v>
       </c>
       <c r="C41">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>22152</v>
+        <v>271</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42">
-        <v>32066</v>
+        <v>2717</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>868</v>
       </c>
       <c r="C42">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>17993</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43">
-        <v>203490</v>
+        <v>186828</v>
       </c>
       <c r="B43">
-        <v>32066</v>
+        <v>186826</v>
       </c>
       <c r="C43">
-        <v>199</v>
+        <v>629</v>
       </c>
       <c r="D43">
-        <v>17993</v>
+        <v>56872</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
+      <c r="A44">
+        <v>186801</v>
+      </c>
+      <c r="B44">
+        <v>1239</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>2260</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>203491</v>
-      </c>
-      <c r="B44">
-        <v>203490</v>
-      </c>
-      <c r="C44">
-        <v>199</v>
-      </c>
-      <c r="D44">
-        <v>17993</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
+      <c r="A45">
+        <v>186802</v>
+      </c>
+      <c r="B45">
+        <v>186801</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>2260</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>257758</v>
-      </c>
-      <c r="B45">
-        <v>1301</v>
-      </c>
-      <c r="C45">
-        <v>184</v>
-      </c>
-      <c r="D45">
-        <v>16637</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
       <c r="H45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46">
-        <v>203492</v>
+        <v>80864</v>
       </c>
       <c r="B46">
-        <v>203491</v>
+        <v>80840</v>
       </c>
       <c r="C46">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>15552</v>
+        <v>452</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
         <v>21</v>
@@ -2111,79 +2116,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47">
-        <v>848</v>
+        <v>1653</v>
       </c>
       <c r="B47">
-        <v>203492</v>
+        <v>85007</v>
       </c>
       <c r="C47">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>15552</v>
+        <v>1175</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1">
+      <c r="A48">
+        <v>85007</v>
+      </c>
+      <c r="B48">
+        <v>2037</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>1627</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1">
+      <c r="A49">
+        <v>1716</v>
+      </c>
+      <c r="B49">
+        <v>1653</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>1175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" t="s">
         <v>23</v>
-      </c>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>84374</v>
-      </c>
-      <c r="B48">
-        <v>838</v>
-      </c>
-      <c r="C48">
-        <v>158</v>
-      </c>
-      <c r="D48">
-        <v>14286</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>1305</v>
-      </c>
-      <c r="B49">
-        <v>1301</v>
-      </c>
-      <c r="C49">
-        <v>152</v>
-      </c>
-      <c r="D49">
-        <v>13743</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
       </c>
       <c r="H49" t="s">
         <v>8</v>
@@ -2191,22 +2196,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>851</v>
+        <v>61592</v>
       </c>
       <c r="B50">
-        <v>848</v>
+        <v>1716</v>
       </c>
       <c r="C50">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>13743</v>
+        <v>1175</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -2215,148 +2220,148 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51">
-        <v>325821</v>
+        <v>68525</v>
       </c>
       <c r="B51">
+        <v>1224</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>452</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1">
+      <c r="A52">
         <v>84374</v>
       </c>
-      <c r="C51">
-        <v>151</v>
-      </c>
-      <c r="D51">
-        <v>13653</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>49546</v>
-      </c>
       <c r="B52">
-        <v>200644</v>
+        <v>838</v>
       </c>
       <c r="C52">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D52">
-        <v>8499</v>
+        <v>14286</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53">
-        <v>200644</v>
+        <v>134245</v>
       </c>
       <c r="B53">
-        <v>117743</v>
+        <v>836</v>
       </c>
       <c r="C53">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>8499</v>
+        <v>6058</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54">
-        <v>117743</v>
+        <v>224767</v>
       </c>
       <c r="B54">
-        <v>976</v>
+        <v>46123</v>
       </c>
       <c r="C54">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>8499</v>
+        <v>1447</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55">
-        <v>28132</v>
+        <v>135073</v>
       </c>
       <c r="B55">
-        <v>838</v>
+        <v>1257</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>6148</v>
+        <v>1266</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56">
-        <v>134245</v>
+        <v>57016</v>
       </c>
       <c r="B56">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C56">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>6058</v>
+        <v>452</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2371,157 +2376,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57">
-        <v>836</v>
+        <v>135095</v>
       </c>
       <c r="B57">
-        <v>171551</v>
+        <v>29465</v>
       </c>
       <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>452</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
         <v>67</v>
       </c>
-      <c r="D57">
-        <v>6058</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>75</v>
-      </c>
       <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1">
+      <c r="A58">
+        <v>29547</v>
+      </c>
+      <c r="B58">
+        <v>68525</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>452</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1">
+      <c r="A59">
+        <v>128827</v>
+      </c>
+      <c r="B59">
+        <v>526525</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1">
+      <c r="A60">
+        <v>526525</v>
+      </c>
+      <c r="B60">
+        <v>526524</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1">
+      <c r="A61">
+        <v>526524</v>
+      </c>
+      <c r="B61">
+        <v>1239</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1">
+      <c r="A62">
+        <v>44259</v>
+      </c>
+      <c r="B62">
+        <v>186804</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>271</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" t="s">
         <v>23</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>171551</v>
-      </c>
-      <c r="B58">
-        <v>171549</v>
-      </c>
-      <c r="C58">
-        <v>67</v>
-      </c>
-      <c r="D58">
-        <v>6058</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>163563</v>
-      </c>
-      <c r="B59">
-        <v>134245</v>
-      </c>
-      <c r="C59">
-        <v>63</v>
-      </c>
-      <c r="D59">
-        <v>5696</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>1016</v>
-      </c>
-      <c r="B60">
-        <v>49546</v>
-      </c>
-      <c r="C60">
-        <v>62</v>
-      </c>
-      <c r="D60">
-        <v>5606</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>137732</v>
-      </c>
-      <c r="B61">
-        <v>117563</v>
-      </c>
-      <c r="C61">
-        <v>38</v>
-      </c>
-      <c r="D61">
-        <v>3436</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>28131</v>
-      </c>
-      <c r="B62">
-        <v>838</v>
-      </c>
-      <c r="C62">
-        <v>33</v>
-      </c>
-      <c r="D62">
-        <v>2984</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
@@ -2529,259 +2534,259 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>59735</v>
+        <v>143361</v>
       </c>
       <c r="B63">
+        <v>44259</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>271</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1">
+      <c r="A64">
+        <v>1239</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>6161</v>
+      </c>
+      <c r="D64">
+        <v>557052</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1">
+      <c r="A65">
         <v>49546</v>
       </c>
-      <c r="C63">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>2893</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="B65">
+        <v>200644</v>
+      </c>
+      <c r="C65">
+        <v>94</v>
+      </c>
+      <c r="D65">
+        <v>8499</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1">
+      <c r="A66">
+        <v>200644</v>
+      </c>
+      <c r="B66">
+        <v>117743</v>
+      </c>
+      <c r="C66">
+        <v>94</v>
+      </c>
+      <c r="D66">
+        <v>8499</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1">
+      <c r="A67">
+        <v>117743</v>
+      </c>
+      <c r="B67">
+        <v>976</v>
+      </c>
+      <c r="C67">
+        <v>94</v>
+      </c>
+      <c r="D67">
+        <v>8499</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1">
+      <c r="A68">
+        <v>32066</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>199</v>
+      </c>
+      <c r="D68">
+        <v>17993</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1">
+      <c r="A69">
+        <v>203492</v>
+      </c>
+      <c r="B69">
+        <v>203491</v>
+      </c>
+      <c r="C69">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>15552</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1">
+      <c r="A70">
+        <v>203491</v>
+      </c>
+      <c r="B70">
+        <v>203490</v>
+      </c>
+      <c r="C70">
+        <v>199</v>
+      </c>
+      <c r="D70">
+        <v>17993</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1">
+      <c r="A71">
+        <v>203490</v>
+      </c>
+      <c r="B71">
+        <v>32066</v>
+      </c>
+      <c r="C71">
+        <v>199</v>
+      </c>
+      <c r="D71">
+        <v>17993</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1">
+      <c r="A72">
+        <v>848</v>
+      </c>
+      <c r="B72">
+        <v>203492</v>
+      </c>
+      <c r="C72">
+        <v>172</v>
+      </c>
+      <c r="D72">
+        <v>15552</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" t="s">
         <v>23</v>
-      </c>
-      <c r="H63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>354471</v>
-      </c>
-      <c r="B64">
-        <v>59735</v>
-      </c>
-      <c r="C64">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>2893</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>2037</v>
-      </c>
-      <c r="B65">
-        <v>85003</v>
-      </c>
-      <c r="C65">
-        <v>31</v>
-      </c>
-      <c r="D65">
-        <v>2803</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>201174</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>31</v>
-      </c>
-      <c r="D66">
-        <v>2803</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>85003</v>
-      </c>
-      <c r="B67">
-        <v>1760</v>
-      </c>
-      <c r="C67">
-        <v>31</v>
-      </c>
-      <c r="D67">
-        <v>2803</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>1760</v>
-      </c>
-      <c r="B68">
-        <v>201174</v>
-      </c>
-      <c r="C68">
-        <v>31</v>
-      </c>
-      <c r="D68">
-        <v>2803</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>1019</v>
-      </c>
-      <c r="B69">
-        <v>1016</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>2712</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>1129771</v>
-      </c>
-      <c r="B70">
-        <v>203491</v>
-      </c>
-      <c r="C70">
-        <v>27</v>
-      </c>
-      <c r="D70">
-        <v>2441</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>32067</v>
-      </c>
-      <c r="B71">
-        <v>1129771</v>
-      </c>
-      <c r="C71">
-        <v>27</v>
-      </c>
-      <c r="D71">
-        <v>2441</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>203692</v>
-      </c>
-      <c r="B72">
-        <v>203691</v>
-      </c>
-      <c r="C72">
-        <v>26</v>
-      </c>
-      <c r="D72">
-        <v>2351</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
@@ -2789,25 +2794,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>203691</v>
+        <v>851</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>848</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D73">
-        <v>2351</v>
+        <v>13743</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
@@ -2815,77 +2820,77 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>137</v>
+        <v>860</v>
       </c>
       <c r="B74">
-        <v>136</v>
+        <v>848</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>2351</v>
+        <v>1808</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75">
-        <v>157</v>
+        <v>1236</v>
       </c>
       <c r="B75">
-        <v>137</v>
+        <v>1224</v>
       </c>
       <c r="C75">
-        <v>26</v>
+        <v>3212</v>
       </c>
       <c r="D75">
-        <v>2351</v>
+        <v>290416</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1">
+      <c r="A76">
+        <v>1378</v>
+      </c>
+      <c r="B76">
+        <v>539738</v>
+      </c>
+      <c r="C76">
+        <v>584</v>
+      </c>
+      <c r="D76">
+        <v>52803</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s">
         <v>23</v>
-      </c>
-      <c r="H75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>1151478</v>
-      </c>
-      <c r="B76">
-        <v>157</v>
-      </c>
-      <c r="C76">
-        <v>26</v>
-      </c>
-      <c r="D76">
-        <v>2351</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
@@ -2893,51 +2898,51 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>136</v>
+        <v>1379</v>
       </c>
       <c r="B77">
-        <v>203692</v>
+        <v>1378</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>447</v>
       </c>
       <c r="D77">
-        <v>2351</v>
+        <v>40416</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78">
-        <v>186802</v>
+        <v>117563</v>
       </c>
       <c r="B78">
-        <v>186801</v>
+        <v>186828</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>627</v>
       </c>
       <c r="D78">
-        <v>2260</v>
+        <v>56691</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
@@ -2945,51 +2950,51 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>186801</v>
+        <v>137732</v>
       </c>
       <c r="B79">
-        <v>1239</v>
+        <v>117563</v>
       </c>
       <c r="C79">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D79">
-        <v>2260</v>
+        <v>3436</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80">
-        <v>575614</v>
+        <v>724</v>
       </c>
       <c r="B80">
-        <v>652716</v>
+        <v>712</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>2848</v>
       </c>
       <c r="D80">
-        <v>2170</v>
+        <v>257505</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
@@ -2997,22 +3002,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>652716</v>
+        <v>727</v>
       </c>
       <c r="B81">
-        <v>838</v>
+        <v>724</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>2844</v>
       </c>
       <c r="D81">
-        <v>2170</v>
+        <v>257143</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -3021,128 +3026,128 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82">
-        <v>689665</v>
+        <v>186803</v>
       </c>
       <c r="B82">
-        <v>482</v>
+        <v>186802</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>1989</v>
+        <v>452</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83">
-        <v>860</v>
+        <v>33958</v>
       </c>
       <c r="B83">
-        <v>848</v>
+        <v>186826</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>1808</v>
+        <v>723</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84">
-        <v>186804</v>
+        <v>186826</v>
       </c>
       <c r="B84">
-        <v>186802</v>
+        <v>91061</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>4079</v>
       </c>
       <c r="D84">
-        <v>1808</v>
+        <v>368807</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85">
-        <v>85007</v>
+        <v>1578</v>
       </c>
       <c r="B85">
-        <v>2037</v>
+        <v>33958</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>1627</v>
+        <v>723</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86">
-        <v>1257</v>
+        <v>32067</v>
       </c>
       <c r="B86">
-        <v>186804</v>
+        <v>1129771</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D86">
-        <v>1537</v>
+        <v>2441</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s">
         <v>23</v>
@@ -3151,24 +3156,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87">
-        <v>186827</v>
+        <v>1129771</v>
       </c>
       <c r="B87">
-        <v>186826</v>
+        <v>203491</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>1447</v>
+        <v>2441</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -3177,157 +3182,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88">
-        <v>224768</v>
+        <v>1268</v>
       </c>
       <c r="B88">
-        <v>224767</v>
+        <v>85006</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>1447</v>
+        <v>362</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89">
-        <v>224767</v>
+        <v>85006</v>
       </c>
       <c r="B89">
-        <v>46123</v>
+        <v>2037</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1447</v>
+        <v>362</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90">
-        <v>46123</v>
+        <v>31969</v>
       </c>
       <c r="B90">
-        <v>186827</v>
+        <v>544448</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>1447</v>
+        <v>452</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1">
+      <c r="A91">
+        <v>1762</v>
+      </c>
+      <c r="B91">
+        <v>85007</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>452</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1">
+      <c r="A92">
+        <v>1763</v>
+      </c>
+      <c r="B92">
+        <v>1762</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>452</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" t="s">
         <v>23</v>
       </c>
-      <c r="H90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>242646</v>
-      </c>
-      <c r="B91">
-        <v>135073</v>
-      </c>
-      <c r="C91">
-        <v>14</v>
-      </c>
-      <c r="D91">
-        <v>1266</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
-        <v>135073</v>
-      </c>
-      <c r="B92">
-        <v>1257</v>
-      </c>
-      <c r="C92">
-        <v>14</v>
-      </c>
-      <c r="D92">
-        <v>1266</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>67</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
       <c r="H92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93">
-        <v>1308</v>
+        <v>2093</v>
       </c>
       <c r="B93">
-        <v>1301</v>
+        <v>2092</v>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>1266</v>
+        <v>452</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H93" t="s">
         <v>8</v>
@@ -3335,129 +3340,129 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>1653</v>
+        <v>538218</v>
       </c>
       <c r="B94">
-        <v>85007</v>
+        <v>2093</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>1175</v>
+        <v>452</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1">
+      <c r="A95">
+        <v>2092</v>
+      </c>
+      <c r="B95">
+        <v>2085</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>452</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
         <v>21</v>
       </c>
-      <c r="H94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95">
-        <v>1716</v>
-      </c>
-      <c r="B95">
-        <v>1653</v>
-      </c>
-      <c r="C95">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>1175</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1">
+      <c r="A96">
+        <v>2085</v>
+      </c>
+      <c r="B96">
+        <v>31969</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>452</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
+      <c r="A97">
+        <v>909932</v>
+      </c>
+      <c r="B97">
+        <v>1239</v>
+      </c>
+      <c r="C97">
+        <v>1467</v>
+      </c>
+      <c r="D97">
+        <v>132640</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1">
+      <c r="A98">
+        <v>482</v>
+      </c>
+      <c r="B98">
+        <v>481</v>
+      </c>
+      <c r="C98">
+        <v>687</v>
+      </c>
+      <c r="D98">
+        <v>62116</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
         <v>23</v>
-      </c>
-      <c r="H95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96">
-        <v>61592</v>
-      </c>
-      <c r="B96">
-        <v>1716</v>
-      </c>
-      <c r="C96">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>1175</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
-        <v>1018</v>
-      </c>
-      <c r="B97">
-        <v>1016</v>
-      </c>
-      <c r="C97">
-        <v>12</v>
-      </c>
-      <c r="D97">
-        <v>1085</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98">
-        <v>28133</v>
-      </c>
-      <c r="B98">
-        <v>838</v>
-      </c>
-      <c r="C98">
-        <v>11</v>
-      </c>
-      <c r="D98">
-        <v>995</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
@@ -3465,10 +3470,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>671232</v>
+        <v>495</v>
       </c>
       <c r="B99">
-        <v>1301</v>
+        <v>482</v>
       </c>
       <c r="C99">
         <v>10</v>
@@ -3480,10 +3485,10 @@
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
@@ -3491,22 +3496,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>76860</v>
+        <v>484</v>
       </c>
       <c r="B100">
-        <v>671232</v>
+        <v>482</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="D100">
-        <v>904</v>
+        <v>59222</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -3517,22 +3522,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>495</v>
+        <v>689665</v>
       </c>
       <c r="B101">
         <v>482</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>904</v>
+        <v>1989</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -3541,79 +3546,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102">
-        <v>1654</v>
+        <v>481</v>
       </c>
       <c r="B102">
-        <v>2049</v>
+        <v>206351</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>689</v>
       </c>
       <c r="D102">
-        <v>814</v>
+        <v>62297</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1">
+      <c r="A103">
+        <v>206351</v>
+      </c>
+      <c r="B103">
+        <v>28216</v>
+      </c>
+      <c r="C103">
+        <v>689</v>
+      </c>
+      <c r="D103">
+        <v>62297</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1">
+      <c r="A104">
+        <v>265975</v>
+      </c>
+      <c r="B104">
+        <v>186803</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>452</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" t="s">
         <v>23</v>
-      </c>
-      <c r="H102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103">
-        <v>2049</v>
-      </c>
-      <c r="B103">
-        <v>85005</v>
-      </c>
-      <c r="C103">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>814</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104">
-        <v>85005</v>
-      </c>
-      <c r="B104">
-        <v>2037</v>
-      </c>
-      <c r="C104">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>814</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>123</v>
-      </c>
-      <c r="G104" t="s">
-        <v>105</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
@@ -3621,129 +3626,129 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>33958</v>
+        <v>237576</v>
       </c>
       <c r="B105">
-        <v>186826</v>
+        <v>265975</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>723</v>
+        <v>452</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1">
+      <c r="A106">
+        <v>712</v>
+      </c>
+      <c r="B106">
+        <v>135625</v>
+      </c>
+      <c r="C106">
+        <v>3209</v>
+      </c>
+      <c r="D106">
+        <v>290145</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
         <v>21</v>
       </c>
-      <c r="H105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106">
-        <v>1578</v>
-      </c>
-      <c r="B106">
-        <v>33958</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="D106">
-        <v>723</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1">
+      <c r="A107">
+        <v>135625</v>
+      </c>
+      <c r="B107">
+        <v>1236</v>
+      </c>
+      <c r="C107">
+        <v>3209</v>
+      </c>
+      <c r="D107">
+        <v>290145</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1">
+      <c r="A108">
+        <v>186804</v>
+      </c>
+      <c r="B108">
+        <v>186802</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>1808</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>103</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1">
+      <c r="A109">
+        <v>1257</v>
+      </c>
+      <c r="B109">
+        <v>186804</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>1537</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>106</v>
+      </c>
+      <c r="G109" t="s">
         <v>23</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107">
-        <v>242668</v>
-      </c>
-      <c r="B107">
-        <v>84374</v>
-      </c>
-      <c r="C107">
-        <v>7</v>
-      </c>
-      <c r="D107">
-        <v>633</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108">
-        <v>1660</v>
-      </c>
-      <c r="B108">
-        <v>1654</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108">
-        <v>633</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109">
-        <v>60133</v>
-      </c>
-      <c r="B109">
-        <v>838</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="D109">
-        <v>633</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
@@ -3751,22 +3756,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>45305</v>
+        <v>242646</v>
       </c>
       <c r="B110">
-        <v>57016</v>
+        <v>135073</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>452</v>
+        <v>1266</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -3777,103 +3782,103 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>80864</v>
+        <v>341694</v>
       </c>
       <c r="B111">
-        <v>80840</v>
+        <v>1257</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>452</v>
+        <v>271</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1">
+      <c r="A112">
+        <v>186818</v>
+      </c>
+      <c r="B112">
+        <v>1385</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>181</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>171</v>
+      </c>
+      <c r="G112" t="s">
         <v>21</v>
       </c>
-      <c r="H111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112">
-        <v>57016</v>
-      </c>
-      <c r="B112">
-        <v>815</v>
-      </c>
-      <c r="C112">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>452</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1">
+      <c r="A113">
+        <v>171551</v>
+      </c>
+      <c r="B113">
+        <v>171549</v>
+      </c>
+      <c r="C113">
         <v>67</v>
       </c>
-      <c r="G112" t="s">
-        <v>45</v>
-      </c>
-      <c r="H112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113">
-        <v>538218</v>
-      </c>
-      <c r="B113">
-        <v>2093</v>
-      </c>
-      <c r="C113">
-        <v>5</v>
-      </c>
       <c r="D113">
-        <v>452</v>
+        <v>6058</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114">
-        <v>2092</v>
+        <v>836</v>
       </c>
       <c r="B114">
-        <v>2085</v>
+        <v>171551</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D114">
-        <v>452</v>
+        <v>6058</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H114" t="s">
         <v>8</v>
@@ -3881,25 +3886,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>2085</v>
+        <v>166578</v>
       </c>
       <c r="B115">
-        <v>31969</v>
+        <v>134245</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H115" t="s">
         <v>8</v>
@@ -3907,51 +3912,51 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>1763</v>
+        <v>163563</v>
       </c>
       <c r="B116">
-        <v>1762</v>
+        <v>134245</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D116">
-        <v>452</v>
+        <v>5696</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1">
+      <c r="A117">
+        <v>838</v>
+      </c>
+      <c r="B117">
+        <v>171552</v>
+      </c>
+      <c r="C117">
+        <v>306</v>
+      </c>
+      <c r="D117">
+        <v>27667</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>56</v>
+      </c>
+      <c r="G117" t="s">
         <v>23</v>
-      </c>
-      <c r="H116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117">
-        <v>31969</v>
-      </c>
-      <c r="B117">
-        <v>544448</v>
-      </c>
-      <c r="C117">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>452</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
       </c>
       <c r="H117" t="s">
         <v>8</v>
@@ -3959,25 +3964,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>544448</v>
+        <v>28131</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>838</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>452</v>
+        <v>2984</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -3985,25 +3990,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>135095</v>
+        <v>28132</v>
       </c>
       <c r="B119">
-        <v>29465</v>
+        <v>838</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D119">
-        <v>452</v>
+        <v>6148</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
@@ -4011,25 +4016,25 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>80840</v>
+        <v>28133</v>
       </c>
       <c r="B120">
-        <v>28216</v>
+        <v>838</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>452</v>
+        <v>995</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
@@ -4037,22 +4042,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>324844</v>
+        <v>60133</v>
       </c>
       <c r="B121">
-        <v>135095</v>
+        <v>838</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>452</v>
+        <v>633</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -4063,10 +4068,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>815</v>
+        <v>228603</v>
       </c>
       <c r="B122">
-        <v>171549</v>
+        <v>838</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -4078,10 +4083,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G122" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -4089,22 +4094,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>228603</v>
+        <v>325821</v>
       </c>
       <c r="B123">
-        <v>838</v>
+        <v>84374</v>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D123">
-        <v>452</v>
+        <v>13653</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -4115,25 +4120,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>1762</v>
+        <v>242668</v>
       </c>
       <c r="B124">
-        <v>85007</v>
+        <v>84374</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>452</v>
+        <v>633</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G124" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
@@ -4141,74 +4146,74 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>2093</v>
+        <v>652716</v>
       </c>
       <c r="B125">
-        <v>2092</v>
+        <v>838</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D125">
-        <v>452</v>
+        <v>2170</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126">
-        <v>213849</v>
+        <v>575614</v>
       </c>
       <c r="B126">
-        <v>29547</v>
+        <v>652716</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D126">
-        <v>452</v>
+        <v>2170</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127">
-        <v>186803</v>
+        <v>171552</v>
       </c>
       <c r="B127">
-        <v>186802</v>
+        <v>171549</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>306</v>
       </c>
       <c r="D127">
-        <v>452</v>
+        <v>27667</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="G127" t="s">
         <v>21</v>
@@ -4217,50 +4222,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128">
-        <v>204</v>
+        <v>1224</v>
       </c>
       <c r="B128">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>3911</v>
       </c>
       <c r="D128">
-        <v>452</v>
+        <v>353617</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129">
-        <v>194</v>
+        <v>32207</v>
       </c>
       <c r="B129">
-        <v>72294</v>
+        <v>1268</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G129" t="s">
         <v>23</v>
@@ -4271,259 +4276,259 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>72294</v>
+        <v>710240</v>
       </c>
       <c r="B130">
-        <v>213849</v>
+        <v>32207</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1">
+      <c r="A131">
+        <v>909929</v>
+      </c>
+      <c r="B131">
+        <v>909932</v>
+      </c>
+      <c r="C131">
+        <v>1467</v>
+      </c>
+      <c r="D131">
+        <v>132640</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1">
+      <c r="A132">
+        <v>117747</v>
+      </c>
+      <c r="B132">
+        <v>976</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1">
+      <c r="A133">
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>136</v>
+      </c>
+      <c r="C133">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>2351</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>93</v>
+      </c>
+      <c r="G133" t="s">
         <v>21</v>
       </c>
-      <c r="H130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131">
-        <v>29547</v>
-      </c>
-      <c r="B131">
-        <v>68525</v>
-      </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-      <c r="D131">
-        <v>452</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>203692</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>2351</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>96</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1">
+      <c r="A135">
+        <v>203691</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>2351</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>92</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1">
+      <c r="A136">
+        <v>203692</v>
+      </c>
+      <c r="B136">
+        <v>203691</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>2351</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136" t="s">
         <v>15</v>
       </c>
-      <c r="H131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
-        <v>68525</v>
-      </c>
-      <c r="B132">
-        <v>1224</v>
-      </c>
-      <c r="C132">
-        <v>5</v>
-      </c>
-      <c r="D132">
-        <v>452</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>149</v>
-      </c>
-      <c r="G132" t="s">
-        <v>150</v>
-      </c>
-      <c r="H132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>265975</v>
-      </c>
-      <c r="B133">
-        <v>186803</v>
-      </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-      <c r="D133">
-        <v>452</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="H136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1">
+      <c r="A137">
+        <v>1300</v>
+      </c>
+      <c r="B137">
+        <v>186826</v>
+      </c>
+      <c r="C137">
+        <v>3423</v>
+      </c>
+      <c r="D137">
+        <v>309494</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1">
+      <c r="A138">
+        <v>1301</v>
+      </c>
+      <c r="B138">
+        <v>1300</v>
+      </c>
+      <c r="C138">
+        <v>3408</v>
+      </c>
+      <c r="D138">
+        <v>308137</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
         <v>23</v>
       </c>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134">
-        <v>237576</v>
-      </c>
-      <c r="B134">
-        <v>265975</v>
-      </c>
-      <c r="C134">
-        <v>5</v>
-      </c>
-      <c r="D134">
-        <v>452</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>152</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
-      <c r="H134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135">
-        <v>85006</v>
-      </c>
-      <c r="B135">
-        <v>2037</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135">
-        <v>362</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s">
-        <v>105</v>
-      </c>
-      <c r="H135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136">
-        <v>32207</v>
-      </c>
-      <c r="B136">
-        <v>1268</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
-      </c>
-      <c r="D136">
-        <v>362</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>154</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137">
-        <v>166578</v>
-      </c>
-      <c r="B137">
-        <v>134245</v>
-      </c>
-      <c r="C137">
-        <v>4</v>
-      </c>
-      <c r="D137">
-        <v>362</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" t="s">
-        <v>155</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
-      <c r="H137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138">
-        <v>710240</v>
-      </c>
-      <c r="B138">
-        <v>32207</v>
-      </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-      <c r="D138">
-        <v>362</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>156</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
       <c r="H138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139">
-        <v>1268</v>
+        <v>671232</v>
       </c>
       <c r="B139">
-        <v>85006</v>
+        <v>1301</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>362</v>
+        <v>904</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="G139" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
@@ -4531,22 +4536,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>143361</v>
+        <v>76860</v>
       </c>
       <c r="B140">
-        <v>44259</v>
+        <v>671232</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>271</v>
+        <v>904</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -4557,25 +4562,25 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>44259</v>
+        <v>257758</v>
       </c>
       <c r="B141">
-        <v>186804</v>
+        <v>1301</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="D141">
-        <v>271</v>
+        <v>16637</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="G141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H141" t="s">
         <v>8</v>
@@ -4583,25 +4588,25 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>2717</v>
+        <v>1305</v>
       </c>
       <c r="B142">
-        <v>868</v>
+        <v>1301</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="D142">
-        <v>271</v>
+        <v>13743</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H142" t="s">
         <v>8</v>
@@ -4609,77 +4614,77 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>868</v>
+        <v>1308</v>
       </c>
       <c r="B143">
-        <v>135615</v>
+        <v>1301</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D143">
-        <v>271</v>
+        <v>1266</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H143" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144">
-        <v>117747</v>
+        <v>544448</v>
       </c>
       <c r="B144">
-        <v>976</v>
+        <v>2</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>271</v>
+        <v>452</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145">
-        <v>135615</v>
+        <v>157</v>
       </c>
       <c r="B145">
-        <v>1236</v>
+        <v>137</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D145">
-        <v>271</v>
+        <v>2351</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H145" t="s">
         <v>8</v>
@@ -4687,22 +4692,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>341694</v>
+        <v>1151478</v>
       </c>
       <c r="B146">
-        <v>1257</v>
+        <v>157</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D146">
-        <v>271</v>
+        <v>2351</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -4711,53 +4716,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147">
-        <v>128827</v>
+        <v>2323</v>
       </c>
       <c r="B147">
-        <v>526525</v>
+        <v>2</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="D147">
-        <v>181</v>
+        <v>22152</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G147" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148">
-        <v>526525</v>
+        <v>49928</v>
       </c>
       <c r="B148">
-        <v>526524</v>
+        <v>2323</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="D148">
-        <v>181</v>
+        <v>22152</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
       </c>
       <c r="F148" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H148" t="s">
         <v>8</v>
@@ -4765,51 +4770,51 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>526524</v>
+        <v>45305</v>
       </c>
       <c r="B149">
-        <v>1239</v>
+        <v>57016</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D149">
-        <v>181</v>
+        <v>452</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150">
-        <v>186817</v>
+        <v>29465</v>
       </c>
       <c r="B150">
-        <v>1385</v>
+        <v>31977</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1458</v>
       </c>
       <c r="D150">
-        <v>181</v>
+        <v>131826</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H150" t="s">
         <v>8</v>
@@ -4817,25 +4822,25 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>150247</v>
+        <v>324844</v>
       </c>
       <c r="B151">
-        <v>186817</v>
+        <v>135095</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>181</v>
+        <v>452</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="G151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H151" t="s">
         <v>8</v>
@@ -4843,22 +4848,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>544580</v>
+        <v>671229</v>
       </c>
       <c r="B152">
-        <v>1654</v>
+        <v>29465</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1451</v>
       </c>
       <c r="D152">
-        <v>181</v>
+        <v>131193</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -4867,24 +4872,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153">
-        <v>186818</v>
+        <v>31977</v>
       </c>
       <c r="B153">
-        <v>1385</v>
+        <v>909929</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1467</v>
       </c>
       <c r="D153">
-        <v>181</v>
+        <v>132640</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
         <v>21</v>
@@ -4894,7 +4899,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H153"/>
+  <autoFilter ref="A1:H153">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="species"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:H153">
+      <sortCondition ref="F1:F153"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
